--- a/output_excel/output_25062020/accuracy_precision_recall_f1_all_methods.xlsx
+++ b/output_excel/output_25062020/accuracy_precision_recall_f1_all_methods.xlsx
@@ -59,7 +59,7 @@
     <t>[INFO] Naive Bayes Recall: 0.852802</t>
   </si>
   <si>
-    <t>[INFO] Naive Bayes F1 score: 0.824085</t>
+    <t>[INFO] Naive Bayes F1 score: 0.854368</t>
   </si>
 </sst>
 </file>
@@ -379,9 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
